--- a/dados/Estatais_rev2.xlsx
+++ b/dados/Estatais_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pereira\Documents\GitHub\estatais-estados\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1095E37-538E-4C23-9938-47C4D4C204AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467A53D-8A72-4319-8F45-6E93D498C84A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
   </bookViews>
@@ -33,8 +33,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId12"/>
-    <pivotCache cacheId="26" r:id="rId13"/>
+    <pivotCache cacheId="29" r:id="rId12"/>
+    <pivotCache cacheId="30" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="426">
   <si>
     <t>Estado</t>
   </si>
@@ -1510,9 +1510,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Não Declarado</t>
   </si>
 </sst>
@@ -1772,6 +1769,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1804,12 +1807,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -43442,7 +43439,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF3CD36F-AD9C-474D-82A4-4FEB4C47B334}" name="Tabela dinâmica2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF3CD36F-AD9C-474D-82A4-4FEB4C47B334}" name="Tabela dinâmica2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0" sortType="descending">
@@ -43602,7 +43599,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61B1AD8F-02E7-40CB-A1FE-5E24D85FA955}" name="Tabela dinâmica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61B1AD8F-02E7-40CB-A1FE-5E24D85FA955}" name="Tabela dinâmica1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:A76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -44173,7 +44170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D376FFE4-9E01-440D-A89A-0615558CD5CD}" name="Tabela dinâmica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D376FFE4-9E01-440D-A89A-0615558CD5CD}" name="Tabela dinâmica1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -44598,7 +44595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{108DFA18-215C-48DD-A8FA-0184EDE7DC13}" name="Tabela dinâmica3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{108DFA18-215C-48DD-A8FA-0184EDE7DC13}" name="Tabela dinâmica3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B28:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -45009,7 +45006,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54178E12-E6C4-40BF-B68F-A0C0C4BF1E6E}" name="Tabela dinâmica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54178E12-E6C4-40BF-B68F-A0C0C4BF1E6E}" name="Tabela dinâmica2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C3:F31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -45615,10 +45612,10 @@
     <dataField name="Soma de Reforço de Capital" fld="10" baseField="0" baseItem="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -45641,7 +45638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5126215-D479-4739-AB6F-A45F3724CC30}" name="Tabela dinâmica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5126215-D479-4739-AB6F-A45F3724CC30}" name="Tabela dinâmica1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -46117,11 +46114,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEE7169-4F29-4161-8BCE-CD1E6900F234}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:N261"/>
+  <dimension ref="A1:N259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46487,7 +46484,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -46515,7 +46512,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -46543,7 +46540,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -46640,7 +46637,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H15" s="4">
         <v>5650868</v>
@@ -46670,7 +46667,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -46699,7 +46696,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" s="4">
         <v>6721921.4699999997</v>
@@ -46966,7 +46963,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -46993,7 +46990,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -50150,7 +50147,7 @@
         <v>26</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H121" s="4">
         <v>12980955.85</v>
@@ -50620,7 +50617,7 @@
         <v>29</v>
       </c>
       <c r="G134" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
@@ -50645,13 +50642,13 @@
         <v>349</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G135" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H135" s="4">
         <v>48597738.68</v>
@@ -50725,7 +50722,7 @@
         <v>49</v>
       </c>
       <c r="G137" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H137" s="4">
         <v>7508717.0499999998</v>
@@ -50795,7 +50792,7 @@
         <v>223</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H139" s="4">
         <v>21309325.030000001</v>
@@ -51387,7 +51384,7 @@
         <v>28</v>
       </c>
       <c r="G156" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -51414,7 +51411,7 @@
         <v>66</v>
       </c>
       <c r="G157" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H157" s="4">
         <v>-852906000</v>
@@ -51447,7 +51444,7 @@
         <v>27</v>
       </c>
       <c r="G158" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -51467,6 +51464,9 @@
       <c r="D159" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="E159" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="F159" s="2" t="s">
         <v>23</v>
       </c>
@@ -51504,7 +51504,7 @@
         <v>29</v>
       </c>
       <c r="G160" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
@@ -51531,7 +51531,7 @@
         <v>29</v>
       </c>
       <c r="G161" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
@@ -51558,7 +51558,7 @@
         <v>65</v>
       </c>
       <c r="G162" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
@@ -51585,7 +51585,7 @@
         <v>402</v>
       </c>
       <c r="G163" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
@@ -51612,7 +51612,7 @@
         <v>24</v>
       </c>
       <c r="G164" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -52008,7 +52008,7 @@
         <v>29</v>
       </c>
       <c r="G176" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H176" s="4">
         <v>-301434356</v>
@@ -52234,7 +52234,7 @@
         <v>47</v>
       </c>
       <c r="G182" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H182" s="4">
         <v>-401510.53</v>
@@ -52344,7 +52344,7 @@
         <v>27</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>411</v>
@@ -52552,7 +52552,7 @@
         <v>27</v>
       </c>
       <c r="G191" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H191" s="4">
         <v>693724435.88000023</v>
@@ -52772,7 +52772,7 @@
         <v>401</v>
       </c>
       <c r="G198" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H198" s="4">
         <v>1843606621.1900001</v>
@@ -52804,7 +52804,7 @@
         <v>23</v>
       </c>
       <c r="G199" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H199" s="12">
         <v>228626667.16999999</v>
@@ -52834,7 +52834,7 @@
         <v>27</v>
       </c>
       <c r="G200" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H200" s="4">
         <v>-322334000</v>
@@ -52864,7 +52864,7 @@
         <v>23</v>
       </c>
       <c r="G201" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
@@ -53016,7 +53016,7 @@
         <v>47</v>
       </c>
       <c r="G206" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H206" s="4">
         <v>0</v>
@@ -53868,7 +53868,7 @@
         <v>23</v>
       </c>
       <c r="G232" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H232" s="4">
         <v>-641580.82999999996</v>
@@ -54795,7 +54795,7 @@
         <v>65822000</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>193</v>
       </c>
@@ -54825,7 +54825,7 @@
       <c r="L257" s="4"/>
       <c r="M257" s="4"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>193</v>
       </c>
@@ -54855,7 +54855,7 @@
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>193</v>
       </c>
@@ -54887,48 +54887,25 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H260" s="4"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="31"/>
-      <c r="K260" s="31"/>
-      <c r="L260" s="31"/>
-      <c r="M260" s="31"/>
-      <c r="N260" s="31"/>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L261" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M261" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D31 B32:C32 B33:D1048576">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:D185">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B223">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="SANEAMENTO">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="SANEAMENTO">
       <formula>NOT(ISERROR(SEARCH("SANEAMENTO",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Esgoto">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Esgoto">
       <formula>NOT(ISERROR(SEARCH("Esgoto",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="água">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="água">
       <formula>NOT(ISERROR(SEARCH("água",B7)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dados/Estatais_rev2.xlsx
+++ b/dados/Estatais_rev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pereira\Documents\GitHub\estatais-estados\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2034C52F-0E4C-4DB5-8761-CD38304EF7C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F29E5-433B-4A86-9ED4-7904DB526263}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="3" r:id="rId1"/>
@@ -46122,9 +46122,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46251,7 +46251,7 @@
         <v>1398</v>
       </c>
       <c r="N3" s="36">
-        <f t="shared" ref="N3:N12" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N66" si="0">J3-L3-M3</f>
         <v>-1398</v>
       </c>
     </row>
@@ -46551,6 +46551,10 @@
       <c r="I13" s="40">
         <v>7543037.3399999999</v>
       </c>
+      <c r="N13" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -46580,6 +46584,10 @@
       <c r="I14" s="40">
         <v>22825000</v>
       </c>
+      <c r="N14" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -46609,6 +46617,10 @@
       <c r="I15" s="40">
         <v>-3372260</v>
       </c>
+      <c r="N15" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -46630,6 +46642,10 @@
         <v>423</v>
       </c>
       <c r="I16" s="40"/>
+      <c r="N16" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -46659,6 +46675,10 @@
       <c r="I17" s="40">
         <v>87201.13</v>
       </c>
+      <c r="N17" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -46692,7 +46712,7 @@
         <v>600000</v>
       </c>
       <c r="N18" s="36">
-        <f t="shared" ref="N18:N20" si="1">J18-L18-M18</f>
+        <f t="shared" si="0"/>
         <v>-21857052.620000001</v>
       </c>
     </row>
@@ -46725,7 +46745,7 @@
         <v>152356690</v>
       </c>
       <c r="N19" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-152356690</v>
       </c>
     </row>
@@ -46758,7 +46778,7 @@
         <v>80293551.510000005</v>
       </c>
       <c r="N20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-80293551.510000005</v>
       </c>
     </row>
@@ -46790,6 +46810,10 @@
       <c r="J21" s="36">
         <v>12325387.83</v>
       </c>
+      <c r="N21" s="36">
+        <f t="shared" si="0"/>
+        <v>12325387.83</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -46819,6 +46843,10 @@
       <c r="L22" s="36">
         <v>10083511.880000001</v>
       </c>
+      <c r="N22" s="36">
+        <f t="shared" si="0"/>
+        <v>-10083511.880000001</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -46845,6 +46873,10 @@
       <c r="I23" s="40">
         <v>-4966883.4400000004</v>
       </c>
+      <c r="N23" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -46871,6 +46903,10 @@
       <c r="I24" s="40">
         <v>-8707340.7200000007</v>
       </c>
+      <c r="N24" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -46895,6 +46931,10 @@
         <v>423</v>
       </c>
       <c r="I25" s="40"/>
+      <c r="N25" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -46919,6 +46959,10 @@
         <v>423</v>
       </c>
       <c r="I26" s="40"/>
+      <c r="N26" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -46952,7 +46996,7 @@
         <v>135895601.53999999</v>
       </c>
       <c r="N27" s="36">
-        <f t="shared" ref="N27:N32" si="2">J27-L27-M27</f>
+        <f t="shared" si="0"/>
         <v>-135895601.53999999</v>
       </c>
     </row>
@@ -46983,7 +47027,7 @@
         <v>20287129.75</v>
       </c>
       <c r="N28" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-20287129.75</v>
       </c>
     </row>
@@ -47016,7 +47060,7 @@
         <v>21329444.129999999</v>
       </c>
       <c r="N29" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-21329444.129999999</v>
       </c>
     </row>
@@ -47044,7 +47088,7 @@
       </c>
       <c r="I30" s="40"/>
       <c r="N30" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47072,7 +47116,7 @@
       </c>
       <c r="I31" s="40"/>
       <c r="N31" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47100,7 +47144,7 @@
       </c>
       <c r="I32" s="40"/>
       <c r="N32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47132,6 +47176,10 @@
       <c r="J33" s="36">
         <v>16246971.57</v>
       </c>
+      <c r="N33" s="36">
+        <f t="shared" si="0"/>
+        <v>16246971.57</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -47161,6 +47209,10 @@
       <c r="M34" s="36">
         <v>7000000</v>
       </c>
+      <c r="N34" s="36">
+        <f t="shared" si="0"/>
+        <v>-7000000</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -47185,6 +47237,10 @@
         <v>559285095</v>
       </c>
       <c r="I35" s="40"/>
+      <c r="N35" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -47209,6 +47265,10 @@
         <v>28224926</v>
       </c>
       <c r="I36" s="40"/>
+      <c r="N36" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -47233,6 +47293,10 @@
         <v>63110467</v>
       </c>
       <c r="I37" s="40"/>
+      <c r="N37" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -47257,6 +47321,10 @@
         <v>-89206000</v>
       </c>
       <c r="I38" s="40"/>
+      <c r="N38" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -47287,7 +47355,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="36">
-        <f t="shared" ref="N39:N42" si="3">J39-L39-M39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47320,7 +47388,7 @@
         <v>37133</v>
       </c>
       <c r="N40" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-37133</v>
       </c>
     </row>
@@ -47356,7 +47424,7 @@
         <v>2999457</v>
       </c>
       <c r="N41" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2999457</v>
       </c>
     </row>
@@ -47389,7 +47457,7 @@
         <v>2367464.0299999998</v>
       </c>
       <c r="N42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-2367464.0299999998</v>
       </c>
     </row>
@@ -47424,6 +47492,10 @@
       <c r="M43" s="36">
         <v>97240040.4572943</v>
       </c>
+      <c r="N43" s="36">
+        <f t="shared" si="0"/>
+        <v>-14956065.477160603</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -47459,6 +47531,10 @@
       <c r="M44" s="36">
         <v>0</v>
       </c>
+      <c r="N44" s="36" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -47491,6 +47567,10 @@
       <c r="M45" s="36">
         <v>174514100.63</v>
       </c>
+      <c r="N45" s="36">
+        <f t="shared" si="0"/>
+        <v>-349028201.25999999</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -47517,6 +47597,10 @@
       <c r="I46" s="40">
         <v>48231000</v>
       </c>
+      <c r="N46" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -47546,6 +47630,10 @@
       <c r="L47" s="36">
         <v>705000</v>
       </c>
+      <c r="N47" s="36">
+        <f t="shared" si="0"/>
+        <v>-705000</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -47572,6 +47660,10 @@
       <c r="I48" s="40">
         <v>21260071</v>
       </c>
+      <c r="N48" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -47598,6 +47690,10 @@
       <c r="I49" s="40">
         <v>1758074</v>
       </c>
+      <c r="N49" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -47627,6 +47723,10 @@
       <c r="L50" s="36">
         <v>0</v>
       </c>
+      <c r="N50" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -47660,7 +47760,7 @@
         <v>25620.11</v>
       </c>
       <c r="N51" s="36">
-        <f t="shared" ref="N51:N57" si="4">J51-L51-M51</f>
+        <f t="shared" si="0"/>
         <v>-25620.11</v>
       </c>
     </row>
@@ -47699,7 +47799,7 @@
         <v>31939919.82</v>
       </c>
       <c r="N52" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-43771230.519999996</v>
       </c>
     </row>
@@ -47729,7 +47829,7 @@
         <v>-5552345</v>
       </c>
       <c r="N53" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47768,7 +47868,7 @@
         <v>31939919.82</v>
       </c>
       <c r="N54" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-56363393.740000002</v>
       </c>
     </row>
@@ -47801,7 +47901,7 @@
         <v>296829.01</v>
       </c>
       <c r="N55" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47834,7 +47934,7 @@
         <v>4103922.05</v>
       </c>
       <c r="N56" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47867,7 +47967,7 @@
         <v>3620.67</v>
       </c>
       <c r="N57" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -47895,6 +47995,10 @@
         <f>'[1]Partic. Majoritárias do Estado'!$AG$30</f>
         <v>97455026.060000002</v>
       </c>
+      <c r="N58" s="36">
+        <f t="shared" si="0"/>
+        <v>97455026.060000002</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -47924,6 +48028,10 @@
       <c r="M59" s="36">
         <v>102887047.20999999</v>
       </c>
+      <c r="N59" s="36">
+        <f t="shared" si="0"/>
+        <v>-102887047.20999999</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -47953,6 +48061,10 @@
       <c r="J60" s="36">
         <v>984176.65</v>
       </c>
+      <c r="N60" s="36">
+        <f t="shared" si="0"/>
+        <v>984176.65</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -47982,6 +48094,10 @@
       <c r="J61" s="36">
         <v>7593210</v>
       </c>
+      <c r="N61" s="36">
+        <f t="shared" si="0"/>
+        <v>7593210</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -48008,6 +48124,10 @@
       <c r="I62" s="40">
         <v>352593356</v>
       </c>
+      <c r="N62" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -48034,6 +48154,10 @@
       <c r="I63" s="40">
         <v>0</v>
       </c>
+      <c r="N63" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -48064,7 +48188,7 @@
         <v>7205124.0300000003</v>
       </c>
       <c r="N64" s="36">
-        <f t="shared" ref="N64:N65" si="5">J64-L64-M64</f>
+        <f t="shared" si="0"/>
         <v>-7205124.0300000003</v>
       </c>
     </row>
@@ -48097,7 +48221,7 @@
         <v>1919000</v>
       </c>
       <c r="N65" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>-1919000</v>
       </c>
     </row>
@@ -48129,6 +48253,10 @@
       <c r="J66" s="36">
         <v>53247611.049999997</v>
       </c>
+      <c r="N66" s="36">
+        <f t="shared" si="0"/>
+        <v>53247611.049999997</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -48158,6 +48286,10 @@
       <c r="J67" s="36">
         <v>20151949.780000001</v>
       </c>
+      <c r="N67" s="36">
+        <f t="shared" ref="N67:N130" si="1">J67-L67-M67</f>
+        <v>20151949.780000001</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -48187,6 +48319,10 @@
       <c r="M68" s="39">
         <v>140420000</v>
       </c>
+      <c r="N68" s="36">
+        <f t="shared" si="1"/>
+        <v>-140420000</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -48213,6 +48349,10 @@
       <c r="I69" s="40">
         <v>-1909150.31</v>
       </c>
+      <c r="N69" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -48243,7 +48383,7 @@
         <v>120266</v>
       </c>
       <c r="N70" s="36">
-        <f t="shared" ref="N70:N74" si="6">J70-L70-M70</f>
+        <f t="shared" si="1"/>
         <v>-120266</v>
       </c>
     </row>
@@ -48276,7 +48416,7 @@
         <v>292463</v>
       </c>
       <c r="N71" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-292463</v>
       </c>
     </row>
@@ -48309,7 +48449,7 @@
         <v>2650000</v>
       </c>
       <c r="N72" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-2650000</v>
       </c>
     </row>
@@ -48342,7 +48482,7 @@
         <v>487363</v>
       </c>
       <c r="N73" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-487363</v>
       </c>
     </row>
@@ -48375,7 +48515,7 @@
         <v>26018649</v>
       </c>
       <c r="N74" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-26018649</v>
       </c>
     </row>
@@ -48407,6 +48547,10 @@
       <c r="M75" s="36">
         <v>20000000</v>
       </c>
+      <c r="N75" s="36">
+        <f t="shared" si="1"/>
+        <v>-20000000</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -48436,6 +48580,10 @@
       <c r="K76" s="36">
         <v>17624</v>
       </c>
+      <c r="N76" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -48462,6 +48610,10 @@
       <c r="I77" s="40">
         <v>-925276</v>
       </c>
+      <c r="N77" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -48488,6 +48640,10 @@
       <c r="I78" s="40">
         <v>62506</v>
       </c>
+      <c r="N78" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -48514,6 +48670,10 @@
       <c r="I79" s="40">
         <v>-4690534</v>
       </c>
+      <c r="N79" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -48540,6 +48700,10 @@
       <c r="I80" s="40">
         <v>6976696</v>
       </c>
+      <c r="N80" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -48566,6 +48730,10 @@
       <c r="I81" s="40">
         <v>-465000</v>
       </c>
+      <c r="N81" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -48592,6 +48760,10 @@
       <c r="I82" s="40">
         <v>2789741</v>
       </c>
+      <c r="N82" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -48618,6 +48790,10 @@
       <c r="I83" s="40">
         <v>-9694727</v>
       </c>
+      <c r="N83" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -48644,6 +48820,10 @@
       <c r="I84" s="40">
         <v>-32754</v>
       </c>
+      <c r="N84" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -48670,6 +48850,10 @@
       <c r="I85" s="40">
         <v>115762000</v>
       </c>
+      <c r="N85" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -48700,7 +48884,7 @@
         <v>65741109.520000003</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" ref="N86:N87" si="7">J86-L86-M86</f>
+        <f t="shared" si="1"/>
         <v>-65741109.520000003</v>
       </c>
     </row>
@@ -48733,7 +48917,7 @@
         <v>842558155.92999995</v>
       </c>
       <c r="N87" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>-842558155.92999995</v>
       </c>
     </row>
@@ -48765,6 +48949,10 @@
       <c r="M88" s="36">
         <v>350523</v>
       </c>
+      <c r="N88" s="36">
+        <f t="shared" si="1"/>
+        <v>-350523</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -48794,6 +48982,10 @@
       <c r="M89" s="36">
         <v>277125</v>
       </c>
+      <c r="N89" s="36">
+        <f t="shared" si="1"/>
+        <v>-277125</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -48823,6 +49015,10 @@
       <c r="J90" s="36">
         <v>4053937.58</v>
       </c>
+      <c r="N90" s="36">
+        <f t="shared" si="1"/>
+        <v>4053937.58</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -48853,7 +49049,7 @@
         <v>209555011.56</v>
       </c>
       <c r="N91" s="36">
-        <f t="shared" ref="N91:N93" si="8">J91-L91-M91</f>
+        <f t="shared" si="1"/>
         <v>-209555011.56</v>
       </c>
     </row>
@@ -48886,7 +49082,7 @@
         <v>95032773.310000002</v>
       </c>
       <c r="N92" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>-95032773.310000002</v>
       </c>
     </row>
@@ -48919,7 +49115,7 @@
         <v>8927028.3699999992</v>
       </c>
       <c r="N93" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>-8927028.3699999992</v>
       </c>
     </row>
@@ -48954,6 +49150,10 @@
       <c r="M94" s="36">
         <v>25097423.039999999</v>
       </c>
+      <c r="N94" s="36">
+        <f t="shared" si="1"/>
+        <v>-25097423.039999999</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -48986,6 +49186,10 @@
       <c r="M95" s="36">
         <v>0</v>
       </c>
+      <c r="N95" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -49018,6 +49222,10 @@
       <c r="M96" s="36">
         <v>0</v>
       </c>
+      <c r="N96" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -49050,6 +49258,10 @@
       <c r="M97" s="36">
         <v>367709020.64999998</v>
       </c>
+      <c r="N97" s="36">
+        <f t="shared" si="1"/>
+        <v>34345276.280000031</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -49082,6 +49294,10 @@
       <c r="M98" s="36">
         <v>3833474.74</v>
       </c>
+      <c r="N98" s="36">
+        <f t="shared" si="1"/>
+        <v>-3833474.74</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -49114,6 +49330,10 @@
       <c r="M99" s="36">
         <v>0</v>
       </c>
+      <c r="N99" s="36">
+        <f t="shared" si="1"/>
+        <v>259439303.78</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -49146,6 +49366,10 @@
       <c r="M100" s="36">
         <v>0</v>
       </c>
+      <c r="N100" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -49178,6 +49402,10 @@
       <c r="M101" s="36">
         <v>20312409.829999998</v>
       </c>
+      <c r="N101" s="36">
+        <f t="shared" si="1"/>
+        <v>-20312409.829999998</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -49210,6 +49438,10 @@
       <c r="M102" s="36">
         <v>0</v>
       </c>
+      <c r="N102" s="36">
+        <f t="shared" si="1"/>
+        <v>7596759.1500000004</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -49242,6 +49474,10 @@
       <c r="M103" s="36">
         <v>0</v>
       </c>
+      <c r="N103" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -49274,6 +49510,10 @@
       <c r="M104" s="36">
         <v>0</v>
       </c>
+      <c r="N104" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -49306,6 +49546,10 @@
       <c r="M105" s="36">
         <v>0</v>
       </c>
+      <c r="N105" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -49338,6 +49582,10 @@
       <c r="M106" s="36">
         <v>60960783.700000003</v>
       </c>
+      <c r="N106" s="36">
+        <f t="shared" si="1"/>
+        <v>-60960783.700000003</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -49370,6 +49618,10 @@
       <c r="M107" s="36">
         <v>0</v>
       </c>
+      <c r="N107" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -49402,6 +49654,10 @@
       <c r="M108" s="36">
         <v>0</v>
       </c>
+      <c r="N108" s="36">
+        <f t="shared" si="1"/>
+        <v>950645.98</v>
+      </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -49434,6 +49690,10 @@
       <c r="M109" s="36">
         <v>177692</v>
       </c>
+      <c r="N109" s="36">
+        <f t="shared" si="1"/>
+        <v>-177692</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -49461,7 +49721,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="36">
-        <f t="shared" ref="N110:N111" si="9">J110-L110-M110</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49494,7 +49754,7 @@
         <v>19796.93</v>
       </c>
       <c r="N111" s="36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>-19796.93</v>
       </c>
     </row>
@@ -49526,6 +49786,10 @@
       <c r="J112" s="36">
         <v>33254.46</v>
       </c>
+      <c r="N112" s="36">
+        <f t="shared" si="1"/>
+        <v>33254.46</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -49555,6 +49819,10 @@
       <c r="J113" s="36">
         <v>7897611.5300000003</v>
       </c>
+      <c r="N113" s="36">
+        <f t="shared" si="1"/>
+        <v>7897611.5300000003</v>
+      </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -49581,6 +49849,10 @@
       <c r="I114" s="40">
         <v>389670.45</v>
       </c>
+      <c r="N114" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
@@ -49608,7 +49880,7 @@
         <v>-1255376</v>
       </c>
       <c r="N115" s="36">
-        <f t="shared" ref="N115:N120" si="10">J115-L115-M115</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49638,7 +49910,7 @@
         <v>-2724744.58</v>
       </c>
       <c r="N116" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49671,7 +49943,7 @@
         <v>4145623.09</v>
       </c>
       <c r="N117" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-4145623.09</v>
       </c>
     </row>
@@ -49704,7 +49976,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49737,7 +50009,7 @@
         <v>14541744.480800018</v>
       </c>
       <c r="N119" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-14541744.480800018</v>
       </c>
     </row>
@@ -49773,7 +50045,7 @@
         <v>21532108</v>
       </c>
       <c r="N120" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>-21532108</v>
       </c>
     </row>
@@ -49805,6 +50077,10 @@
       <c r="M121" s="36">
         <v>954440</v>
       </c>
+      <c r="N121" s="36">
+        <f t="shared" si="1"/>
+        <v>-954440</v>
+      </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
@@ -49833,7 +50109,7 @@
         <v>-282405.63</v>
       </c>
       <c r="N122" s="36">
-        <f>J122-L122-M122</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -49865,6 +50141,10 @@
       <c r="J123" s="36">
         <v>123301078.59999999</v>
       </c>
+      <c r="N123" s="36">
+        <f t="shared" si="1"/>
+        <v>123301078.59999999</v>
+      </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
@@ -49898,7 +50178,7 @@
         <v>9326086.9299999997</v>
       </c>
       <c r="N124" s="36">
-        <f t="shared" ref="N124:N127" si="11">J124-L124-M124</f>
+        <f t="shared" si="1"/>
         <v>-9326086.9299999997</v>
       </c>
     </row>
@@ -49934,7 +50214,7 @@
         <v>12611295.779999999</v>
       </c>
       <c r="N125" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-12611295.779999999</v>
       </c>
     </row>
@@ -49970,7 +50250,7 @@
         <v>4237079.03</v>
       </c>
       <c r="N126" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-4237079.03</v>
       </c>
     </row>
@@ -50006,7 +50286,7 @@
         <v>72347464.170000002</v>
       </c>
       <c r="N127" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>-72347464.170000002</v>
       </c>
     </row>
@@ -50041,6 +50321,10 @@
       <c r="M128" s="36">
         <v>150117300.06</v>
       </c>
+      <c r="N128" s="36">
+        <f t="shared" si="1"/>
+        <v>-150117300.06</v>
+      </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
@@ -50074,7 +50358,7 @@
         <v>120279589.23999999</v>
       </c>
       <c r="N129" s="36">
-        <f t="shared" ref="N129:N136" si="12">J129-L129-M129</f>
+        <f t="shared" si="1"/>
         <v>-120279589.23999999</v>
       </c>
     </row>
@@ -50108,7 +50392,7 @@
       <c r="L130" s="36"/>
       <c r="M130" s="36"/>
       <c r="N130" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -50144,7 +50428,7 @@
       </c>
       <c r="M131" s="36"/>
       <c r="N131" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N131:N194" si="2">J131-L131-M131</f>
         <v>-53863663.200000003</v>
       </c>
     </row>
@@ -50177,7 +50461,7 @@
         <v>-34661556.659999996</v>
       </c>
       <c r="N132" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -50210,7 +50494,7 @@
         <v>-256978.77</v>
       </c>
       <c r="N133" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -50238,7 +50522,7 @@
       </c>
       <c r="I134" s="40"/>
       <c r="N134" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -50271,7 +50555,7 @@
         <v>2883680.63</v>
       </c>
       <c r="N135" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -50304,7 +50588,7 @@
         <v>-2256835.25</v>
       </c>
       <c r="N136" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -50336,6 +50620,10 @@
       <c r="I137" s="42">
         <v>2564198.79</v>
       </c>
+      <c r="N137" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
@@ -50366,7 +50654,7 @@
         <v>11236000</v>
       </c>
       <c r="N138" s="36">
-        <f>J138-L138-M138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -50398,6 +50686,10 @@
       <c r="I139" s="40">
         <v>425374.14</v>
       </c>
+      <c r="N139" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
@@ -50427,6 +50719,10 @@
       <c r="I140" s="40">
         <v>109838000</v>
       </c>
+      <c r="N140" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -50460,7 +50756,7 @@
         <v>54479571.460000001</v>
       </c>
       <c r="N141" s="36">
-        <f t="shared" ref="N141:N147" si="13">J141-L141-M141</f>
+        <f t="shared" si="2"/>
         <v>-54479571.460000001</v>
       </c>
     </row>
@@ -50496,7 +50792,7 @@
         <v>166248003</v>
       </c>
       <c r="N142" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-166248003</v>
       </c>
     </row>
@@ -50532,7 +50828,7 @@
         <v>4600054</v>
       </c>
       <c r="N143" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-4600054</v>
       </c>
     </row>
@@ -50568,7 +50864,7 @@
         <v>96473246</v>
       </c>
       <c r="N144" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-96473246</v>
       </c>
     </row>
@@ -50604,7 +50900,7 @@
         <v>73291133</v>
       </c>
       <c r="N145" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-73291133</v>
       </c>
     </row>
@@ -50640,7 +50936,7 @@
         <v>2386838</v>
       </c>
       <c r="N146" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-2386838</v>
       </c>
     </row>
@@ -50679,7 +50975,7 @@
         <v>20453416</v>
       </c>
       <c r="N147" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-109259440</v>
       </c>
     </row>
@@ -50711,6 +51007,10 @@
       <c r="M148" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N148" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -50740,6 +51040,10 @@
       <c r="M149" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N149" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -50769,6 +51073,10 @@
       <c r="M150" s="36">
         <v>513906733.42000002</v>
       </c>
+      <c r="N150" s="36">
+        <f t="shared" si="2"/>
+        <v>-513906733.42000002</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -50798,6 +51106,10 @@
       <c r="M151" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N151" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -50827,6 +51139,10 @@
       <c r="M152" s="36">
         <v>3170000</v>
       </c>
+      <c r="N152" s="36">
+        <f t="shared" si="2"/>
+        <v>-3170000</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -50856,6 +51172,10 @@
       <c r="M153" s="36" t="s">
         <v>125</v>
       </c>
+      <c r="N153" s="36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -50888,6 +51208,10 @@
       <c r="M154" s="36">
         <v>2362872.48</v>
       </c>
+      <c r="N154" s="36">
+        <f t="shared" si="2"/>
+        <v>7121761.0499999989</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -50917,6 +51241,10 @@
       <c r="M155" s="36">
         <v>2450000</v>
       </c>
+      <c r="N155" s="36">
+        <f t="shared" si="2"/>
+        <v>-2450000</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
@@ -50941,6 +51269,10 @@
         <v>423</v>
       </c>
       <c r="I156" s="40"/>
+      <c r="N156" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
@@ -50970,6 +51302,10 @@
       <c r="I157" s="40">
         <v>-70626000</v>
       </c>
+      <c r="N157" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
@@ -50994,6 +51330,10 @@
         <v>423</v>
       </c>
       <c r="I158" s="40"/>
+      <c r="N158" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
@@ -51023,6 +51363,10 @@
       <c r="I159" s="40">
         <v>-1680</v>
       </c>
+      <c r="N159" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
@@ -51047,6 +51391,10 @@
         <v>423</v>
       </c>
       <c r="I160" s="40"/>
+      <c r="N160" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
@@ -51071,6 +51419,10 @@
         <v>423</v>
       </c>
       <c r="I161" s="40"/>
+      <c r="N161" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
@@ -51095,6 +51447,10 @@
         <v>423</v>
       </c>
       <c r="I162" s="40"/>
+      <c r="N162" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
@@ -51119,6 +51475,10 @@
         <v>423</v>
       </c>
       <c r="I163" s="40"/>
+      <c r="N163" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
@@ -51143,6 +51503,10 @@
         <v>423</v>
       </c>
       <c r="I164" s="40"/>
+      <c r="N164" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -51178,6 +51542,10 @@
       <c r="M165" s="36">
         <v>0</v>
       </c>
+      <c r="N165" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -51207,6 +51575,10 @@
       <c r="J166" s="36">
         <v>79597</v>
       </c>
+      <c r="N166" s="36">
+        <f t="shared" si="2"/>
+        <v>79597</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -51242,6 +51614,10 @@
       <c r="M167" s="36">
         <v>0</v>
       </c>
+      <c r="N167" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -51277,6 +51653,10 @@
       <c r="M168" s="36">
         <v>0</v>
       </c>
+      <c r="N168" s="36">
+        <f t="shared" si="2"/>
+        <v>2078756.2000000002</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -51306,6 +51686,10 @@
       <c r="M169" s="36">
         <v>8000000</v>
       </c>
+      <c r="N169" s="36">
+        <f t="shared" si="2"/>
+        <v>-8000000</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -51335,6 +51719,10 @@
       <c r="J170" s="36">
         <v>112195550.97</v>
       </c>
+      <c r="N170" s="36">
+        <f t="shared" si="2"/>
+        <v>112195550.97</v>
+      </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -51361,6 +51749,10 @@
       <c r="I171" s="40">
         <v>3428478</v>
       </c>
+      <c r="N171" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -51390,6 +51782,10 @@
       <c r="L172" s="36">
         <v>0</v>
       </c>
+      <c r="N172" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -51422,6 +51818,10 @@
       <c r="M173" s="36">
         <v>122887545</v>
       </c>
+      <c r="N173" s="36">
+        <f t="shared" si="2"/>
+        <v>-211740257</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -51451,6 +51851,10 @@
       <c r="M174" s="36">
         <v>78409000</v>
       </c>
+      <c r="N174" s="36">
+        <f t="shared" si="2"/>
+        <v>-78409000</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -51487,7 +51891,7 @@
         <v>0</v>
       </c>
       <c r="N175" s="36">
-        <f t="shared" ref="N175:N190" si="14">J175-L175-M175</f>
+        <f t="shared" si="2"/>
         <v>-118471548</v>
       </c>
     </row>
@@ -51520,7 +51924,7 @@
         <v>12098120</v>
       </c>
       <c r="N176" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-12098120</v>
       </c>
     </row>
@@ -51556,7 +51960,7 @@
         <v>37636867.840000004</v>
       </c>
       <c r="N177" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-37636867.840000004</v>
       </c>
     </row>
@@ -51595,7 +51999,7 @@
         <v>0</v>
       </c>
       <c r="N178" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-88363972.459999993</v>
       </c>
     </row>
@@ -51634,7 +52038,7 @@
         <v>12160.38</v>
       </c>
       <c r="N179" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-20473170.239999998</v>
       </c>
     </row>
@@ -51670,7 +52074,7 @@
         <v>61586954.340000004</v>
       </c>
       <c r="N180" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-61586954.340000004</v>
       </c>
     </row>
@@ -51700,7 +52104,7 @@
         <v>-22327773</v>
       </c>
       <c r="N181" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51733,7 +52137,7 @@
         <v>4721472.8</v>
       </c>
       <c r="N182" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-4721472.8</v>
       </c>
     </row>
@@ -51769,7 +52173,7 @@
         <v>14186004.449999999</v>
       </c>
       <c r="N183" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-14186004.449999999</v>
       </c>
     </row>
@@ -51802,7 +52206,7 @@
         <v>536601.81000000006</v>
       </c>
       <c r="N184" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51835,7 +52239,10 @@
       <c r="K185" s="36"/>
       <c r="L185" s="36"/>
       <c r="M185" s="36"/>
-      <c r="N185" s="36"/>
+      <c r="N185" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -51860,7 +52267,7 @@
         <v>14453926</v>
       </c>
       <c r="N186" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -51893,7 +52300,7 @@
         <v>14137577</v>
       </c>
       <c r="N187" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-14137577</v>
       </c>
     </row>
@@ -51926,7 +52333,7 @@
         <v>8620345.8699999992</v>
       </c>
       <c r="N188" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-8620345.8699999992</v>
       </c>
     </row>
@@ -51962,7 +52369,7 @@
         <v>4287481.88</v>
       </c>
       <c r="N189" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-4287481.88</v>
       </c>
     </row>
@@ -51995,7 +52402,7 @@
         <v>20032620.949999999</v>
       </c>
       <c r="N190" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-20032620.949999999</v>
       </c>
     </row>
@@ -52027,6 +52434,10 @@
       <c r="M191" s="36">
         <v>9975363.9799999986</v>
       </c>
+      <c r="N191" s="36">
+        <f t="shared" si="2"/>
+        <v>-9975363.9799999986</v>
+      </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -52053,6 +52464,10 @@
       <c r="I192" s="40" t="s">
         <v>67</v>
       </c>
+      <c r="N192" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -52082,6 +52497,10 @@
       <c r="J193" s="36">
         <v>2847416.05</v>
       </c>
+      <c r="N193" s="36">
+        <f t="shared" si="2"/>
+        <v>2847416.05</v>
+      </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -52108,6 +52527,10 @@
       <c r="I194" s="40">
         <v>2016817</v>
       </c>
+      <c r="N194" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
@@ -52138,7 +52561,7 @@
         <v>170000</v>
       </c>
       <c r="N195" s="36">
-        <f>J195-L195-M195</f>
+        <f t="shared" ref="N195:N258" si="3">J195-L195-M195</f>
         <v>-170000</v>
       </c>
     </row>
@@ -52165,6 +52588,10 @@
         <v>162631832.69</v>
       </c>
       <c r="I196" s="40"/>
+      <c r="N196" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
@@ -52194,6 +52621,10 @@
       <c r="L197" s="36">
         <v>1928781.64</v>
       </c>
+      <c r="N197" s="36">
+        <f t="shared" si="3"/>
+        <v>-1928781.64</v>
+      </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
@@ -52223,6 +52654,10 @@
       <c r="M198" s="36">
         <v>1000000</v>
       </c>
+      <c r="N198" s="36">
+        <f t="shared" si="3"/>
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -52249,6 +52684,10 @@
       <c r="I199" s="40">
         <v>2657222.3199999998</v>
       </c>
+      <c r="N199" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -52275,6 +52714,10 @@
       <c r="I200" s="40">
         <v>-77594000</v>
       </c>
+      <c r="N200" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -52296,6 +52739,10 @@
         <v>423</v>
       </c>
       <c r="I201" s="40"/>
+      <c r="N201" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
@@ -52328,7 +52775,10 @@
       <c r="K202" s="36"/>
       <c r="L202" s="36"/>
       <c r="M202" s="36"/>
-      <c r="N202" s="36"/>
+      <c r="N202" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
@@ -52361,7 +52811,10 @@
       <c r="K203" s="36"/>
       <c r="L203" s="36"/>
       <c r="M203" s="36"/>
-      <c r="N203" s="36"/>
+      <c r="N203" s="36">
+        <f t="shared" si="3"/>
+        <v>37410062.350000001</v>
+      </c>
     </row>
     <row r="204" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
@@ -52394,7 +52847,10 @@
       <c r="K204" s="36"/>
       <c r="L204" s="36"/>
       <c r="M204" s="36"/>
-      <c r="N204" s="36"/>
+      <c r="N204" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
@@ -52427,7 +52883,10 @@
       <c r="K205" s="36"/>
       <c r="L205" s="36"/>
       <c r="M205" s="36"/>
-      <c r="N205" s="36"/>
+      <c r="N205" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
@@ -52460,7 +52919,10 @@
       <c r="K206" s="36"/>
       <c r="L206" s="36"/>
       <c r="M206" s="36"/>
-      <c r="N206" s="36"/>
+      <c r="N206" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
@@ -52493,7 +52955,10 @@
       <c r="K207" s="36"/>
       <c r="L207" s="36"/>
       <c r="M207" s="36"/>
-      <c r="N207" s="36"/>
+      <c r="N207" s="36">
+        <f t="shared" si="3"/>
+        <v>152375000</v>
+      </c>
     </row>
     <row r="208" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
@@ -52526,7 +52991,10 @@
       <c r="K208" s="36"/>
       <c r="L208" s="36"/>
       <c r="M208" s="36"/>
-      <c r="N208" s="36"/>
+      <c r="N208" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
@@ -52559,7 +53027,10 @@
       <c r="K209" s="36"/>
       <c r="L209" s="36"/>
       <c r="M209" s="36"/>
-      <c r="N209" s="36"/>
+      <c r="N209" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
@@ -52586,7 +53057,10 @@
       <c r="K210" s="36"/>
       <c r="L210" s="36"/>
       <c r="M210" s="36"/>
-      <c r="N210" s="36"/>
+      <c r="N210" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:14" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A211" s="9" t="s">
@@ -52619,7 +53093,10 @@
       <c r="K211" s="36"/>
       <c r="L211" s="36"/>
       <c r="M211" s="36"/>
-      <c r="N211" s="36"/>
+      <c r="N211" s="36">
+        <f t="shared" si="3"/>
+        <v>267009000</v>
+      </c>
     </row>
     <row r="212" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
@@ -52652,7 +53129,10 @@
       <c r="K212" s="36"/>
       <c r="L212" s="36"/>
       <c r="M212" s="36"/>
-      <c r="N212" s="36"/>
+      <c r="N212" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -52683,7 +53163,7 @@
         <v>8447006.4199999999</v>
       </c>
       <c r="N213" s="36">
-        <f t="shared" ref="N213:N216" si="15">J213-L213-M213</f>
+        <f t="shared" si="3"/>
         <v>-8447006.4199999999</v>
       </c>
     </row>
@@ -52713,7 +53193,7 @@
         <v>-2279008.2000000002</v>
       </c>
       <c r="N214" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -52746,7 +53226,7 @@
         <v>13376238.9</v>
       </c>
       <c r="N215" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>-13376238.9</v>
       </c>
     </row>
@@ -52782,7 +53262,7 @@
         <v>4854000</v>
       </c>
       <c r="N216" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>-338432562.31</v>
       </c>
     </row>
@@ -52817,6 +53297,10 @@
       <c r="M217" s="36">
         <v>7293811.54</v>
       </c>
+      <c r="N217" s="36">
+        <f t="shared" si="3"/>
+        <v>-7293811.54</v>
+      </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -52846,6 +53330,10 @@
       <c r="J218" s="36">
         <v>2274039.61</v>
       </c>
+      <c r="N218" s="36">
+        <f t="shared" si="3"/>
+        <v>2274039.61</v>
+      </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -52875,6 +53363,10 @@
       <c r="J219" s="36">
         <v>3611629.72</v>
       </c>
+      <c r="N219" s="36">
+        <f t="shared" si="3"/>
+        <v>3611629.72</v>
+      </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -52901,6 +53393,10 @@
       <c r="I220" s="40">
         <v>-163349199.52000001</v>
       </c>
+      <c r="N220" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -52930,6 +53426,10 @@
       <c r="J221" s="36">
         <v>0</v>
       </c>
+      <c r="N221" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -52962,6 +53462,10 @@
       <c r="M222" s="36">
         <v>866345.6</v>
       </c>
+      <c r="N222" s="36">
+        <f t="shared" si="3"/>
+        <v>-866345.6</v>
+      </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -52991,6 +53495,10 @@
       <c r="J223" s="36">
         <v>0</v>
       </c>
+      <c r="N223" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
@@ -53017,6 +53525,10 @@
       <c r="I224" s="40">
         <v>-234560.88</v>
       </c>
+      <c r="N224" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
@@ -53043,6 +53555,10 @@
       <c r="I225" s="40">
         <v>-22930382.550000001</v>
       </c>
+      <c r="N225" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
@@ -53070,7 +53586,7 @@
         <v>-10469402.210000001</v>
       </c>
       <c r="N226" s="36">
-        <f t="shared" ref="N226:N232" si="16">J226-L226-M226</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53100,7 +53616,7 @@
         <v>-58086815.270000003</v>
       </c>
       <c r="N227" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53130,7 +53646,7 @@
         <v>-718740</v>
       </c>
       <c r="N228" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53160,7 +53676,7 @@
         <v>-8653695</v>
       </c>
       <c r="N229" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53190,7 +53706,7 @@
         <v>-554574.31999999995</v>
       </c>
       <c r="N230" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53220,7 +53736,7 @@
         <v>-16085495.65</v>
       </c>
       <c r="N231" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53250,7 +53766,7 @@
         <v>-98119.26</v>
       </c>
       <c r="N232" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -53282,6 +53798,10 @@
       <c r="J233" s="36">
         <v>254390.34</v>
       </c>
+      <c r="N233" s="36">
+        <f t="shared" si="3"/>
+        <v>254390.34</v>
+      </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -53311,6 +53831,10 @@
       <c r="M234" s="36">
         <v>11447648</v>
       </c>
+      <c r="N234" s="36">
+        <f t="shared" si="3"/>
+        <v>-11447648</v>
+      </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -53337,6 +53861,10 @@
       <c r="I235" s="40">
         <v>-918653.23</v>
       </c>
+      <c r="N235" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
@@ -53366,6 +53894,10 @@
       <c r="J236" s="36">
         <v>22623868.799999997</v>
       </c>
+      <c r="N236" s="36">
+        <f t="shared" si="3"/>
+        <v>22623868.799999997</v>
+      </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
@@ -53405,7 +53937,7 @@
         <v>407000</v>
       </c>
       <c r="N237" s="36">
-        <f t="shared" ref="N237:N242" si="17">J237-L237-M237</f>
+        <f t="shared" si="3"/>
         <v>-167030000</v>
       </c>
     </row>
@@ -53447,7 +53979,7 @@
         <v>0</v>
       </c>
       <c r="N238" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-16758000</v>
       </c>
     </row>
@@ -53489,7 +54021,7 @@
         <v>0</v>
       </c>
       <c r="N239" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-28582000</v>
       </c>
     </row>
@@ -53531,7 +54063,7 @@
         <v>0</v>
       </c>
       <c r="N240" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-40347000</v>
       </c>
     </row>
@@ -53573,7 +54105,7 @@
         <v>51000</v>
       </c>
       <c r="N241" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-89815000</v>
       </c>
     </row>
@@ -53615,7 +54147,7 @@
         <v>865656000</v>
       </c>
       <c r="N242" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>-1824544000</v>
       </c>
     </row>
@@ -53656,6 +54188,10 @@
       <c r="M243" s="36">
         <v>5000000000</v>
       </c>
+      <c r="N243" s="36">
+        <f t="shared" si="3"/>
+        <v>-4646239000</v>
+      </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
@@ -53694,6 +54230,10 @@
       <c r="M244" s="36">
         <v>10424000</v>
       </c>
+      <c r="N244" s="36">
+        <f t="shared" si="3"/>
+        <v>5015000</v>
+      </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
@@ -53732,6 +54272,10 @@
       <c r="M245" s="36">
         <v>0</v>
       </c>
+      <c r="N245" s="36">
+        <f t="shared" si="3"/>
+        <v>1428000</v>
+      </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
@@ -53770,6 +54314,10 @@
       <c r="M246" s="36">
         <v>2055429000</v>
       </c>
+      <c r="N246" s="36">
+        <f t="shared" si="3"/>
+        <v>-2055429000</v>
+      </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
@@ -53808,6 +54356,10 @@
       <c r="M247" s="36">
         <v>0</v>
       </c>
+      <c r="N247" s="36">
+        <f t="shared" si="3"/>
+        <v>5748000</v>
+      </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
@@ -53846,6 +54398,10 @@
       <c r="M248" s="36">
         <v>347000000</v>
       </c>
+      <c r="N248" s="36">
+        <f t="shared" si="3"/>
+        <v>-347000000</v>
+      </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
@@ -53884,6 +54440,10 @@
       <c r="M249" s="36">
         <v>186488000</v>
       </c>
+      <c r="N249" s="36">
+        <f t="shared" si="3"/>
+        <v>-186488000</v>
+      </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
@@ -53922,6 +54482,10 @@
       <c r="M250" s="36">
         <v>0</v>
       </c>
+      <c r="N250" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
@@ -53960,6 +54524,10 @@
       <c r="M251" s="36">
         <v>611250000</v>
       </c>
+      <c r="N251" s="36">
+        <f t="shared" si="3"/>
+        <v>-611250000</v>
+      </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
@@ -53998,6 +54566,10 @@
       <c r="M252" s="36">
         <v>0</v>
       </c>
+      <c r="N252" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
@@ -54036,6 +54608,10 @@
       <c r="M253" s="36">
         <v>8137000</v>
       </c>
+      <c r="N253" s="36">
+        <f t="shared" si="3"/>
+        <v>2519000</v>
+      </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
@@ -54074,6 +54650,10 @@
       <c r="M254" s="36">
         <v>65128000</v>
       </c>
+      <c r="N254" s="36">
+        <f t="shared" si="3"/>
+        <v>-33664000</v>
+      </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
@@ -54112,6 +54692,10 @@
       <c r="M255" s="36">
         <v>0</v>
       </c>
+      <c r="N255" s="36">
+        <f t="shared" si="3"/>
+        <v>69429000</v>
+      </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
@@ -54150,8 +54734,12 @@
       <c r="M256" s="36">
         <v>65822000</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" s="36">
+        <f t="shared" si="3"/>
+        <v>-65822000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>193</v>
       </c>
@@ -54176,8 +54764,12 @@
       <c r="I257" s="40">
         <v>-2971679.58</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>193</v>
       </c>
@@ -54202,8 +54794,12 @@
       <c r="I258" s="40">
         <v>490802.29</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>193</v>
       </c>
@@ -54230,6 +54826,10 @@
       </c>
       <c r="M259" s="36">
         <v>185000</v>
+      </c>
+      <c r="N259" s="36">
+        <f>J259-L259-M259</f>
+        <v>-185000</v>
       </c>
     </row>
   </sheetData>
